--- a/data/clean_data/notebook_data.xlsx
+++ b/data/clean_data/notebook_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14060" tabRatio="500" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Total Attendance" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1004,6 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="A39:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1819,21 +1820,21 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D7">
-        <v>0.89768976899999997</v>
+        <v>0.87581699300000004</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7">
@@ -1843,19 +1844,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C8">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="D8">
-        <v>0.89296636100000004</v>
+        <v>0.86149584499999998</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1867,40 +1868,40 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>0.87581699300000004</v>
+        <v>0.86111111100000004</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>361</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>0.86149584499999998</v>
+        <v>0.859375</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1909,46 +1910,46 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="D11">
-        <v>0.86111111100000004</v>
+        <v>0.85644768900000001</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="D12">
-        <v>0.859375</v>
+        <v>0.85519125699999998</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1957,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="C13">
-        <v>411</v>
+        <v>185</v>
       </c>
       <c r="D13">
-        <v>0.85644768900000001</v>
+        <v>0.85405405400000001</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1987,22 +1988,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="C14">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="D14">
-        <v>0.85519125699999998</v>
+        <v>0.85223367699999997</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2011,16 +2012,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="C15">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="D15">
-        <v>0.85405405400000001</v>
+        <v>0.85031847100000002</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2035,22 +2036,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="C16">
-        <v>291</v>
+        <v>486</v>
       </c>
       <c r="D16">
-        <v>0.85223367699999997</v>
+        <v>0.83539094700000005</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2059,40 +2060,40 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="C17">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>0.85031847100000002</v>
+        <v>0.81578947400000001</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>406</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>0.83539094700000005</v>
+        <v>0.80555555599999995</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2101,28 +2102,28 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D19">
-        <v>0.81578947400000001</v>
+        <v>0.80487804900000004</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2131,16 +2132,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="D20">
-        <v>0.80555555599999995</v>
+        <v>0.80312499999999998</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2149,76 +2150,76 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="C21">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="D21">
-        <v>0.80487804900000004</v>
+        <v>0.790190736</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>0.80312499999999998</v>
+        <v>0.78947368399999995</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C23">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D23">
-        <v>0.790190736</v>
+        <v>0.78342246000000004</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2227,22 +2228,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>0.78947368399999995</v>
+        <v>0.77777777800000003</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2251,40 +2252,40 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="C25">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>0.78342246000000004</v>
+        <v>0.77</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="D26">
-        <v>0.77777777800000003</v>
+        <v>0.76600985200000005</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2293,46 +2294,46 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="D27">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="C28">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="D28">
-        <v>0.76600985200000005</v>
+        <v>0.73278236900000004</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2347,19 +2348,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C29">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="D29">
-        <v>0.75949367099999998</v>
+        <v>0.72368421100000002</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2371,16 +2372,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="C30">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="D30">
-        <v>0.75</v>
+        <v>0.71129707099999995</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2395,16 +2396,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C31">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="D31">
-        <v>0.73278236900000004</v>
+        <v>0.70853080599999996</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2419,22 +2420,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="C32">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="D32">
-        <v>0.72774869099999995</v>
+        <v>0.703333333</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2443,16 +2444,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="C33">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="D33">
-        <v>0.72368421100000002</v>
+        <v>0.70171673800000001</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2467,22 +2468,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>222</v>
       </c>
       <c r="C34">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D34">
-        <v>0.72312703599999995</v>
+        <v>0.68944099400000003</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2491,19 +2492,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="C35">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="D35">
-        <v>0.72115384599999999</v>
+        <v>0.67574257400000004</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2515,19 +2516,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="C36">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D36">
-        <v>0.72020725399999996</v>
+        <v>0.67062314499999998</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2538,16 +2539,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="C37">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>0.71129707099999995</v>
+        <v>0.67058823499999998</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2556,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C38">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D38">
-        <v>0.70853080599999996</v>
+        <v>0.63764705899999996</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2584,16 +2585,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C39">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D39">
-        <v>0.703333333</v>
+        <v>0.63466666699999996</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2607,16 +2608,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="C40">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="D40">
-        <v>0.70171673800000001</v>
+        <v>0.63235294099999995</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2630,22 +2631,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C41">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D41">
-        <v>0.68944099400000003</v>
+        <v>0.62</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2653,19 +2654,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="C42">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="D42">
-        <v>0.68531468500000003</v>
+        <v>0.60327868900000003</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2676,39 +2677,39 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C44">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="D44">
-        <v>0.67574257400000004</v>
+        <v>0.59411764700000003</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2722,16 +2723,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C45">
-        <v>337</v>
+        <v>452</v>
       </c>
       <c r="D45">
-        <v>0.67062314499999998</v>
+        <v>0.58185840700000002</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2745,39 +2746,39 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="D46">
-        <v>0.67058823499999998</v>
+        <v>0.57654723100000005</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>0</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C47">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="D47">
-        <v>0.63764705899999996</v>
+        <v>0.57217847799999999</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2791,22 +2792,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C48">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="D48">
-        <v>0.63466666699999996</v>
+        <v>0.56034482799999996</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2814,16 +2815,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="C49">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="D49">
-        <v>0.63235294099999995</v>
+        <v>0.52453987700000004</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2837,19 +2838,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C50">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="D50">
-        <v>0.62202380999999995</v>
+        <v>0.51196172200000001</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2860,16 +2861,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C51">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="D51">
-        <v>0.62</v>
+        <v>0.50585480100000002</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2883,19 +2884,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C52">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52">
-        <v>0.60327868900000003</v>
+        <v>0.89768976899999997</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2906,42 +2907,42 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="C53">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="D53">
-        <v>0.6</v>
+        <v>0.89296636100000004</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C54">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D54">
-        <v>0.59411764700000003</v>
+        <v>0.75949367099999998</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2952,16 +2953,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C55">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="D55">
-        <v>0.59006211200000003</v>
+        <v>0.72774869099999995</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2975,16 +2976,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C56">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D56">
-        <v>0.58270676700000001</v>
+        <v>0.72312703599999995</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2998,19 +2999,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B57">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C57">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="D57">
-        <v>0.58185840700000002</v>
+        <v>0.72115384599999999</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3021,22 +3022,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="C58">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="D58">
-        <v>0.57654723100000005</v>
+        <v>0.72020725399999996</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3044,19 +3045,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B59">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="C59">
-        <v>381</v>
+        <v>143</v>
       </c>
       <c r="D59">
-        <v>0.57217847799999999</v>
+        <v>0.68531468500000003</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3067,19 +3068,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B60">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C60">
-        <v>464</v>
+        <v>300</v>
       </c>
       <c r="D60">
-        <v>0.56034482799999996</v>
+        <v>0.68</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3090,19 +3091,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C61">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D61">
-        <v>0.52453987700000004</v>
+        <v>0.62202380999999995</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3113,16 +3114,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B62">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C62">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D62">
-        <v>0.52201257899999998</v>
+        <v>0.59006211200000003</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3136,16 +3137,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B63">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C63">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D63">
-        <v>0.51818181799999996</v>
+        <v>0.58270676700000001</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3159,19 +3160,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C64">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="D64">
-        <v>0.51196172200000001</v>
+        <v>0.52201257899999998</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3182,19 +3183,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="C65">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="D65">
-        <v>0.50585480100000002</v>
+        <v>0.51818181799999996</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3251,7 +3252,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:G67">
-    <sortCondition descending="1" ref="D1:D67"/>
+    <sortCondition descending="1" ref="E1:E67"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3297,10 +3298,10 @@
       <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -19196,7 +19197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -19224,10 +19225,10 @@
       <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -40271,10 +40272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40289,7 +40290,7 @@
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -40318,7 +40319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -40348,7 +40349,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -40378,7 +40379,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -40408,7 +40409,7 @@
         <v>0.90697674418604646</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -40438,7 +40439,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -40468,8 +40469,8 @@
         <v>0.97014925373134331</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B7">
@@ -40497,9 +40498,13 @@
         <f t="shared" si="0"/>
         <v>0.97872340425531912</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="K7">
+        <f>AVERAGE(I2:I17)</f>
+        <v>0.97067007481528145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B8">
@@ -40528,8 +40533,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B9">
@@ -40558,8 +40563,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="16" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B10">
@@ -40588,8 +40593,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -40618,7 +40623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -40648,7 +40653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -40678,7 +40683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -40708,7 +40713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -40738,7 +40743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -54704,7 +54709,7 @@
         <v>138</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D18" si="0">C2/B2</f>
         <v>1.5862068965517242</v>
       </c>
     </row>
@@ -54719,7 +54724,7 @@
         <v>101</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>4.208333333333333</v>
       </c>
     </row>
@@ -54734,7 +54739,7 @@
         <v>593</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>12.617021276595745</v>
       </c>
     </row>
@@ -54749,7 +54754,7 @@
         <v>498</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>22.636363636363637</v>
       </c>
     </row>
@@ -54764,7 +54769,7 @@
         <v>408</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
@@ -54779,7 +54784,7 @@
         <v>159</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>9.9375</v>
       </c>
     </row>
@@ -54794,7 +54799,7 @@
         <v>859</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>11.155844155844155</v>
       </c>
     </row>
@@ -54809,7 +54814,7 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>9.9090909090909083</v>
       </c>
     </row>
@@ -54824,7 +54829,7 @@
         <v>392</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>5.7647058823529411</v>
       </c>
     </row>
@@ -54839,7 +54844,7 @@
         <v>233</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>8.0344827586206904</v>
       </c>
     </row>
@@ -54854,7 +54859,7 @@
         <v>374</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>4.9866666666666664</v>
       </c>
     </row>
@@ -54869,7 +54874,7 @@
         <v>120</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -54884,7 +54889,7 @@
         <v>338</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -54899,7 +54904,7 @@
         <v>140</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>4.117647058823529</v>
       </c>
     </row>
@@ -54914,7 +54919,7 @@
         <v>281</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>4.1940298507462686</v>
       </c>
     </row>
@@ -54929,7 +54934,7 @@
         <v>230</v>
       </c>
       <c r="D17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>8.8461538461538467</v>
       </c>
     </row>
@@ -54944,7 +54949,7 @@
         <v>618</v>
       </c>
       <c r="D18">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>7.1860465116279073</v>
       </c>
     </row>
@@ -55242,10 +55247,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -55272,245 +55277,259 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>0.10309278350515463</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>0.14285714285714285</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>0.64122137404580148</v>
+        <v>9.45945945945946E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>0.6071428571428571</v>
+        <v>9.6385542168674704E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>5.8823529411764705E-2</v>
+        <v>0.10309278350515463</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>0.38461538461538464</v>
+        <v>0.12820512820512819</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.13131313131313133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>0.70270270270270274</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>0.31313131313131315</v>
+        <v>0.20408163265306123</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>9.375E-2</v>
+        <v>0.25714285714285712</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>9.6385542168674704E-2</v>
+        <v>0.31313131313131315</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>0.72972972972972971</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>0.20408163265306123</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>0.12820512820512819</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>9.45945945945946E-2</v>
+        <v>0.64122137404580148</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.25714285714285712</v>
+        <v>0.70270270270270274</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>0.13131313131313133</v>
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>388</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>776</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.30522292371878229</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D18">
-    <sortCondition ref="A2:A18"/>
+    <sortCondition ref="D2:D18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -55610,10 +55629,10 @@
         <v>0.96428571428571397</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
